--- a/tools/importer/reports/import-homepage.report.xlsx
+++ b/tools/importer/reports/import-homepage.report.xlsx
@@ -52,7 +52,7 @@
     <t>homepage</t>
   </si>
   <si>
-    <t>2026-02-24T16:21:36.748Z</t>
+    <t>2026-02-24T19:20:42.645Z</t>
   </si>
   <si>
     <t>WKND Trendsetters - Fresh Looks, Bold Stories, Real Life</t>
